--- a/EXCEL Output/Assignment3.xlsx
+++ b/EXCEL Output/Assignment3.xlsx
@@ -48,8 +48,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -127,25 +130,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C2" headerRowCount="1">
-  <autoFilter ref="A1:C2"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D2" headerRowCount="1">
+  <autoFilter ref="A1:D2"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="Measure Name"/>
     <tableColumn id="2" name="Measure Expression"/>
-    <tableColumn id="3" name="Measure Description"/>
+    <tableColumn id="3" name="Measure Data Type"/>
+    <tableColumn id="4" name="Measure Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:D4" headerRowCount="1">
-  <autoFilter ref="A1:D4"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:F4" headerRowCount="1">
+  <autoFilter ref="A1:F4"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
     <tableColumn id="4" name="Table Source"/>
+    <tableColumn id="5" name="Table Query"/>
+    <tableColumn id="6" name="Modification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -456,45 +462,61 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Measure Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Measure Expression</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Measure Data Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Measure Description</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>CurrentRole(Sales Person)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>"Michael"</t>
         </is>
       </c>
-      <c r="C2">
-        <f> AVERAGEX(VALUES('Table'[Group]),[Value])
-AVERAGEX is a DAX function used to calculate the average of a column in the Table based on a Group. In this case, the "Michael" will be equal to the average of the Value column in the</f>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D2" s="1">
+        <f>
+The calculation "Michael" is likely referring to a measure in DAX that calculates the value of something for the person “Michael”. This could be anything from a count of the number of items related to Michael in a data set, or a sum of a total associated with Michael.</f>
         <v/>
       </c>
     </row>
@@ -512,93 +534,153 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="80" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Table No</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Table Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Table Type</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Table Source</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Table Query</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modification</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>Sales SalesPerson</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Sql.Databases</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>"MAQN0366\SQLEXPRESS"</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"Removed Columns" = Table.RemoveColumns(Sales_SalesPerson,{"Bonus", "CommissionPct", "rowguid", "ModifiedDate", "HumanResources.Employee", "Sales.SalesOrderHeader", "Sales.SalesPersonQuotaHistory", "Sales.SalesTerritory", "Sales.SalesTerritoryHistory", "Sales.Store"}),
+    #"Rounded Off" = Table.TransformColumns(#"Removed Columns",{{"SalesLastYear", each Number.Round(_, 2), Currency.Type}}),
+    #"Rounded Off1" = Table.TransformColumns(#"Rounded Off",{{"SalesQuota", each Number.Round(_, 2), Currency.Type}}),
+    #"Rounded Off2" = Table.TransformColumns(#"Rounded Off1",{{"SalesYTD", each Number.Round(_, 2), Currency.Type}}),
+    #"Changed Type" = Table.TransformColumnTypes(#"Rounded Off2",{{"SalesQuota", Currency.Type}, {"SalesYTD", Currency.Type}, {"SalesLastYear", Currency.Type}})
+in
+    #"Changed Type"</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>Person Person</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Sql.Databases</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>"MAQN0366\SQLEXPRESS"</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"Removed Other Columns" = Table.SelectColumns(Person_Person,{"BusinessEntityID", "FirstName"}),
+    #"Renamed Columns" = Table.RenameColumns(#"Removed Other Columns",{{"FirstName", "SalesPersonName"}})
+in
+    #"Renamed Columns"</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>Sales SalesTerritory</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Sql.Databases</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="1" t="inlineStr">
         <is>
           <t>"MAQN0366\SQLEXPRESS"</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"Removed Other Columns" = Table.SelectColumns(Sales_SalesTerritory,{"TerritoryID", "Name", "CountryRegionCode", "Group", "SalesYTD", "SalesLastYear"}),
+    #"Renamed Columns" = Table.RenameColumns(#"Removed Other Columns",{{"Name", "TerritoryName"}, {"CountryRegionCode", "TerritoryCode"}, {"Group", "TerritoryGroup"}})
+in
+    #"Renamed Columns"</t>
         </is>
       </c>
     </row>
@@ -623,113 +705,122 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>From Table</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>From Column</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>To Table</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>To Column</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Direction</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Cardinality</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Sales SalesPerson</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>TerritoryID</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Sales SalesTerritory</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>TerritoryID</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>ready</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Single Directional</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Many to one (*:1)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Person Person</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>BusinessEntityID</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Sales SalesPerson</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>BusinessEntityID</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>ready</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>Both Directional</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>One to one (1:1)</t>
         </is>

--- a/EXCEL Output/Assignment3.xlsx
+++ b/EXCEL Output/Assignment3.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="D2" s="1">
         <f>
-The calculation "Michael" is likely referring to a measure in DAX that calculates the value of something for the person “Michael”. This could be anything from a count of the number of items related to Michael in a data set, or a sum of a total associated with Michael.</f>
+This is likely a calculation involving the name Michael, possibly calculating a result related to Michael. Depending on the context, it could describe an employee or customer named Michael or it could be part of a larger calculation.</f>
         <v/>
       </c>
     </row>
@@ -608,13 +608,12 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"Removed Columns" = Table.RemoveColumns(Sales_SalesPerson,{"Bonus", "CommissionPct", "rowguid", "ModifiedDate", "HumanResources.Employee", "Sales.SalesOrderHeader", "Sales.SalesPersonQuotaHistory", "Sales.SalesTerritory", "Sales.SalesTerritoryHistory", "Sales.Store"}),
-    #"Rounded Off" = Table.TransformColumns(#"Removed Columns",{{"SalesLastYear", each Number.Round(_, 2), Currency.Type}}),
-    #"Rounded Off1" = Table.TransformColumns(#"Rounded Off",{{"SalesQuota", each Number.Round(_, 2), Currency.Type}}),
-    #"Rounded Off2" = Table.TransformColumns(#"Rounded Off1",{{"SalesYTD", each Number.Round(_, 2), Currency.Type}}),
-    #"Changed Type" = Table.TransformColumnTypes(#"Rounded Off2",{{"SalesQuota", Currency.Type}, {"SalesYTD", Currency.Type}, {"SalesLastYear", Currency.Type}})
-in
-    #"Changed Type"</t>
+          <t xml:space="preserve">1. #"Removed Columns" = Table.RemoveColumns(Sales_SalesPerson,{"Bonus", "CommissionPct", "rowguid", "ModifiedDate", "HumanResources.Employee", "Sales.SalesOrderHeader", "Sales.SalesPersonQuotaHistory", "Sales.SalesTerritory", "Sales.SalesTerritoryHistory", "Sales.Store"}),
+2. #"Rounded Off" = Table.TransformColumns(#"Removed Columns",{{"SalesLastYear", each Number.Round(_, 2), Currency.Type}}),
+3. #"Rounded Off1" = Table.TransformColumns(#"Rounded Off",{{"SalesQuota", each Number.Round(_, 2), Currency.Type}}),
+4. #"Rounded Off2" = Table.TransformColumns(#"Rounded Off1",{{"SalesYTD", each Number.Round(_, 2), Currency.Type}}),
+5. #"Changed Type" = Table.TransformColumnTypes(#"Rounded Off2",{{"SalesQuota", Currency.Type}, {"SalesYTD", Currency.Type}, {"SalesLastYear", Currency.Type}})
+</t>
         </is>
       </c>
     </row>
@@ -644,10 +643,9 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"Removed Other Columns" = Table.SelectColumns(Person_Person,{"BusinessEntityID", "FirstName"}),
-    #"Renamed Columns" = Table.RenameColumns(#"Removed Other Columns",{{"FirstName", "SalesPersonName"}})
-in
-    #"Renamed Columns"</t>
+          <t xml:space="preserve">1. #"Removed Other Columns" = Table.SelectColumns(Person_Person,{"BusinessEntityID", "FirstName"}),
+2. #"Renamed Columns" = Table.RenameColumns(#"Removed Other Columns",{{"FirstName", "SalesPersonName"}})
+</t>
         </is>
       </c>
     </row>
@@ -677,10 +675,9 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"Removed Other Columns" = Table.SelectColumns(Sales_SalesTerritory,{"TerritoryID", "Name", "CountryRegionCode", "Group", "SalesYTD", "SalesLastYear"}),
-    #"Renamed Columns" = Table.RenameColumns(#"Removed Other Columns",{{"Name", "TerritoryName"}, {"CountryRegionCode", "TerritoryCode"}, {"Group", "TerritoryGroup"}})
-in
-    #"Renamed Columns"</t>
+          <t xml:space="preserve">1. #"Removed Other Columns" = Table.SelectColumns(Sales_SalesTerritory,{"TerritoryID", "Name", "CountryRegionCode", "Group", "SalesYTD", "SalesLastYear"}),
+2. #"Renamed Columns" = Table.RenameColumns(#"Removed Other Columns",{{"Name", "TerritoryName"}, {"CountryRegionCode", "TerritoryCode"}, {"Group", "TerritoryGroup"}})
+</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment3.xlsx
+++ b/EXCEL Output/Assignment3.xlsx
@@ -143,15 +143,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:F4" headerRowCount="1">
-  <autoFilter ref="A1:F4"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
     <tableColumn id="4" name="Table Source"/>
-    <tableColumn id="5" name="Table Query"/>
-    <tableColumn id="6" name="Modification"/>
+    <tableColumn id="5" name="Original Table Name"/>
+    <tableColumn id="6" name="Table Query"/>
+    <tableColumn id="7" name="Modification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -514,10 +515,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="D2" s="1">
-        <f>
-This is likely a calculation involving the name Michael, possibly calculating a result related to Michael. Depending on the context, it could describe an employee or customer named Michael or it could be part of a larger calculation.</f>
-        <v/>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Model[Daily Profit]=CALCULATE(SUMX(Sales,Sales[Price]*Sales[Quantity])-Cost[Cost],"Michael")
+This calculation is determining the daily profit of the "Michael" model. The daily profit is calculated by taking the sum of the total price of each</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -534,7 +536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,10 +546,11 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="80" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="80" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -573,10 +576,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Original Table Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Table Query</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Modification</t>
         </is>
@@ -603,10 +611,15 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
+          <t>AdventureWorks2012</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Removed Columns" = Table.RemoveColumns(Sales_SalesPerson,{"Bonus", "CommissionPct", "rowguid", "ModifiedDate", "HumanResources.Employee", "Sales.SalesOrderHeader", "Sales.SalesPersonQuotaHistory", "Sales.SalesTerritory", "Sales.SalesTerritoryHistory", "Sales.Store"}),
 2. #"Rounded Off" = Table.TransformColumns(#"Removed Columns",{{"SalesLastYear", each Number.Round(_, 2), Currency.Type}}),
@@ -638,10 +651,15 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
+          <t>AdventureWorks2012</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Removed Other Columns" = Table.SelectColumns(Person_Person,{"BusinessEntityID", "FirstName"}),
 2. #"Renamed Columns" = Table.RenameColumns(#"Removed Other Columns",{{"FirstName", "SalesPersonName"}})
@@ -670,10 +688,15 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
+          <t>AdventureWorks2012</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Removed Other Columns" = Table.SelectColumns(Sales_SalesTerritory,{"TerritoryID", "Name", "CountryRegionCode", "Group", "SalesYTD", "SalesLastYear"}),
 2. #"Renamed Columns" = Table.RenameColumns(#"Removed Other Columns",{{"Name", "TerritoryName"}, {"CountryRegionCode", "TerritoryCode"}, {"Group", "TerritoryGroup"}})

--- a/EXCEL Output/Assignment3.xlsx
+++ b/EXCEL Output/Assignment3.xlsx
@@ -143,9 +143,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:H4" headerRowCount="1">
+  <autoFilter ref="A1:H4"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
@@ -153,6 +153,7 @@
     <tableColumn id="5" name="Original Table Name"/>
     <tableColumn id="6" name="Table Query"/>
     <tableColumn id="7" name="Modification"/>
+    <tableColumn id="8" name="Modification Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -515,11 +516,10 @@
           <t>string</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Model[Daily Profit]=CALCULATE(SUMX(Sales,Sales[Price]*Sales[Quantity])-Cost[Cost],"Michael")
-This calculation is determining the daily profit of the "Michael" model. The daily profit is calculated by taking the sum of the total price of each</t>
-        </is>
+      <c r="D2" s="1">
+        <f>
+"Michael" = is a calculation that evaluates whether the value of another calculation, such as a customer name, equals "Michael". If it does, then it returns a True or False value depending on the criteria. This calculation is useful in data analysis and can be used to filter out specific values or to</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -536,7 +536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,7 @@
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="80" customWidth="1" min="7" max="7"/>
+    <col width="80" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -587,6 +588,11 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Modification</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Modification Description</t>
         </is>
       </c>
     </row>
@@ -629,6 +635,11 @@
 </t>
         </is>
       </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>This code is creating a table of sales data from a database called Adventure Works 2012. The table begins with all the columns from Adventure Works 2012 that pertain to SalesPerson. It then removes certain columns from the table (Bonus, CommissionPct, rowguid, ModifiedDate, HumanResources.Employee, Sales.SalesOrderHeader, Sales.SalesPersonQuotaHistory, Sales.SalesTerritory, Sales.SalesTerritoryHistory, Sales.Store). It then rounds off the columns SalesLastYear, SalesQuota and SalesYTD to the nearest two decimal places, and lastly it changes the type of these three columns to Currency.Type. The end result is the newly created table, which is now called #"Changed Type".</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -666,6 +677,11 @@
 </t>
         </is>
       </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>This code takes a database called AdventureWorks2012 and focuses on the Person table within the database (Person_Person). From this it selects two columns, BusinessEntityID and FirstName, and renames the FirstName column to SalesPersonName.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -701,6 +717,11 @@
           <t xml:space="preserve">1. #"Removed Other Columns" = Table.SelectColumns(Sales_SalesTerritory,{"TerritoryID", "Name", "CountryRegionCode", "Group", "SalesYTD", "SalesLastYear"}),
 2. #"Renamed Columns" = Table.RenameColumns(#"Removed Other Columns",{{"Name", "TerritoryName"}, {"CountryRegionCode", "TerritoryCode"}, {"Group", "TerritoryGroup"}})
 </t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>This expression is taking data from a source (in this case, AdventureWorks2012) from the Sales and SalesTerritory items. Then, it is removing any columns referred to as "Other Columns" and renaming the remaining columns (Name to TerritoryName, CountryRegionCode to TerritoryCode, and Group to TerritoryGroup). Finally, it contains the data in the Renamed Columns.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment3.xlsx
+++ b/EXCEL Output/Assignment3.xlsx
@@ -517,8 +517,8 @@
         </is>
       </c>
       <c r="D2" s="1">
-        <f>
-"Michael" = is a calculation that evaluates whether the value of another calculation, such as a customer name, equals "Michael". If it does, then it returns a True or False value depending on the criteria. This calculation is useful in data analysis and can be used to filter out specific values or to</f>
+        <f> CALCULATE (SUM (FactSales[Revenue]),
+This calculation is finding the total revenue for all sales made by Michael. It is taking the revenue figure from the FactSales table and summing it up to get the total revenue amount for Michael.</f>
         <v/>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>This code is creating a table of sales data from a database called Adventure Works 2012. The table begins with all the columns from Adventure Works 2012 that pertain to SalesPerson. It then removes certain columns from the table (Bonus, CommissionPct, rowguid, ModifiedDate, HumanResources.Employee, Sales.SalesOrderHeader, Sales.SalesPersonQuotaHistory, Sales.SalesTerritory, Sales.SalesTerritoryHistory, Sales.Store). It then rounds off the columns SalesLastYear, SalesQuota and SalesYTD to the nearest two decimal places, and lastly it changes the type of these three columns to Currency.Type. The end result is the newly created table, which is now called #"Changed Type".</t>
+          <t>This code takes data from the source called AdventureWorks2012, which contains a salesperson's information. It removes certain columns from the data (e.g. Bonus, CommissionPct, rowguid, ModifiedDate, etc), and rounds off certain sales information (e.g. SalesLastYear, SalesQuota, SalesYTD) to two decimal places. Lastly, the code changes the type of those sale columns to currency type.  The code result is the same data set with the changes made.</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>This code takes a database called AdventureWorks2012 and focuses on the Person table within the database (Person_Person). From this it selects two columns, BusinessEntityID and FirstName, and renames the FirstName column to SalesPersonName.</t>
+          <t>In this series of code, data from a source called "AdventureWorks2012" is retrieved from the Person_Person table, and two columns (BusinessEntityID and FirstName) from that table are selected. The FirstName column is then renamed to "SalesPersonName".</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>This expression is taking data from a source (in this case, AdventureWorks2012) from the Sales and SalesTerritory items. Then, it is removing any columns referred to as "Other Columns" and renaming the remaining columns (Name to TerritoryName, CountryRegionCode to TerritoryCode, and Group to TerritoryGroup). Finally, it contains the data in the Renamed Columns.</t>
+          <t>This is a line of code written in a programming language. In this code, the programmer is accessing data from a database called AdventureWorks2012. They then narrowed down the data to a section called "Sales" and "SalesTerritory". They eliminated unnecessary columns, renamed others, and the result of the code is stored in the "Renamed Columns" section.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment3.xlsx
+++ b/EXCEL Output/Assignment3.xlsx
@@ -517,8 +517,8 @@
         </is>
       </c>
       <c r="D2" s="1">
-        <f> CALCULATE (SUM (FactSales[Revenue]),
-This calculation is finding the total revenue for all sales made by Michael. It is taking the revenue figure from the FactSales table and summing it up to get the total revenue amount for Michael.</f>
+        <f>
+"Michael" is a single value that can be referenced in a calculation. It is likely a name or term that is used in the calculation to represent some data or value.</f>
         <v/>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>This code takes data from the source called AdventureWorks2012, which contains a salesperson's information. It removes certain columns from the data (e.g. Bonus, CommissionPct, rowguid, ModifiedDate, etc), and rounds off certain sales information (e.g. SalesLastYear, SalesQuota, SalesYTD) to two decimal places. Lastly, the code changes the type of those sale columns to currency type.  The code result is the same data set with the changes made.</t>
+          <t>This line of code is an example of data cleaning and manipulation. It is from a database called AdventureWorks2012, which contains Sales_SalesPerson data. It starts by removing several unnecessary columns from the data, including "Bonus", "CommissionPct", "rowguid", "ModifiedDate", "HumanResources.Employee", "Sales.SalesOrderHeader", "Sales.SalesPersonQuotaHistory", "Sales.SalesTerritory", "Sales.SalesTerritoryHistory", and "Sales.Store". Then, the code "rounds off" (or accurately rounds to two decimal places) columns for "SalesLastYear", "SalesQuota", and "SalesYTD". Next, the code changed the data types to match the currency type in the original data set. Then, the code returns the final output of clean and organized data.</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>In this series of code, data from a source called "AdventureWorks2012" is retrieved from the Person_Person table, and two columns (BusinessEntityID and FirstName) from that table are selected. The FirstName column is then renamed to "SalesPersonName".</t>
+          <t>This code is selecting columns from the "AdventureWorks2012" source, specifically those in the "Person" schema. The original "FirstName" column is removed, while columns "BusinessEntityID" and "FirstName" are kept. Finally, the remaining "FirstName" column is renamed to "SalesPersonName" in the resulting renamed columns.</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>This is a line of code written in a programming language. In this code, the programmer is accessing data from a database called AdventureWorks2012. They then narrowed down the data to a section called "Sales" and "SalesTerritory". They eliminated unnecessary columns, renamed others, and the result of the code is stored in the "Renamed Columns" section.</t>
+          <t>This step is using a source of data called "AdventureWorks2012" and referring to tables within it by schema and item name. In this example, it is the table named "SalesTerritory" from the schema "Sales". It is stripping away any columns that are not specifically listed, which in this case are "TerritoryID", "Name", "CountryRegionCode", "Group", "SalesYTD", and "SalesLastYear". Finally, it is renaming the columns to "TerritoryName", "TerritoryCode", and "TerritoryGroup" instead of the previous names.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment3.xlsx
+++ b/EXCEL Output/Assignment3.xlsx
@@ -516,10 +516,10 @@
           <t>string</t>
         </is>
       </c>
-      <c r="D2" s="1">
-        <f>
-"Michael" is a single value that can be referenced in a calculation. It is likely a name or term that is used in the calculation to represent some data or value.</f>
-        <v/>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Michael could be a name referring to a person, or it could refer to a calculation. If it is referring to a calculation, Michael could be the name of a DAX expression or formula used to calculate a result. It could refer to an aggregation of data, such as the sum or average of a set</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -548,7 +548,7 @@
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="40" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="80" customWidth="1" min="7" max="7"/>
     <col width="80" customWidth="1" min="8" max="8"/>
@@ -637,7 +637,12 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>This line of code is an example of data cleaning and manipulation. It is from a database called AdventureWorks2012, which contains Sales_SalesPerson data. It starts by removing several unnecessary columns from the data, including "Bonus", "CommissionPct", "rowguid", "ModifiedDate", "HumanResources.Employee", "Sales.SalesOrderHeader", "Sales.SalesPersonQuotaHistory", "Sales.SalesTerritory", "Sales.SalesTerritoryHistory", and "Sales.Store". Then, the code "rounds off" (or accurately rounds to two decimal places) columns for "SalesLastYear", "SalesQuota", and "SalesYTD". Next, the code changed the data types to match the currency type in the original data set. Then, the code returns the final output of clean and organized data.</t>
+          <t xml:space="preserve">1. This means that the columns "Bonus", "CommissionPct", "rowguid", "ModifiedDate", "HumanResources.Employee", "Sales.SalesOrderHeader", "Sales.SalesPersonQuotaHistory", "Sales.SalesTerritory", "Sales.SalesTerritoryHistory", and "Sales.Store" have been removed from a table called "Sales_SalesPerson".
+2. This formula rounds off the value in the "SalesLastYear" column to two decimal places and formats it as a currency.
+3. "Rounded Off1" is a table transformation that rounds the values in the "SalesQuota" column to two decimal places and formats them as currency.
+4. This means that all values of a column called "SalesYTD" are rounded off to the nearest two decimal places and shown in a currency format.
+5. This changes the data types of the columns "SalesQuota", "SalesYTD", and "SalesLastYear" from the "Rounded Off2" table to a currency type.
+</t>
         </is>
       </c>
     </row>
@@ -679,7 +684,9 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>This code is selecting columns from the "AdventureWorks2012" source, specifically those in the "Person" schema. The original "FirstName" column is removed, while columns "BusinessEntityID" and "FirstName" are kept. Finally, the remaining "FirstName" column is renamed to "SalesPersonName" in the resulting renamed columns.</t>
+          <t xml:space="preserve">1. This statement selects the columns "BusinessEntityID" and "FirstName" from the "Person_Person" table.
+2. This renames the "FirstName" column as "SalesPersonName" after the other columns have been removed from the table.
+</t>
         </is>
       </c>
     </row>
@@ -721,7 +728,9 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>This step is using a source of data called "AdventureWorks2012" and referring to tables within it by schema and item name. In this example, it is the table named "SalesTerritory" from the schema "Sales". It is stripping away any columns that are not specifically listed, which in this case are "TerritoryID", "Name", "CountryRegionCode", "Group", "SalesYTD", and "SalesLastYear". Finally, it is renaming the columns to "TerritoryName", "TerritoryCode", and "TerritoryGroup" instead of the previous names.</t>
+          <t xml:space="preserve">1. The table has been changed to remove any columns except those specified (TerritoryID, Name, CountryRegionCode, Group, SalesYTD, SalesLastYear).
+2. This renames the columns of the table after removing the other columns, so that the new names are "TerritoryName", "TerritoryCode" and "TerritoryGroup".
+</t>
         </is>
       </c>
     </row>
